--- a/Excel/StatisticalFunctions.xlsx
+++ b/Excel/StatisticalFunctions.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E52F8D-CFEE-48B3-979D-9A1C01AA77D4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79617917-155D-481F-B6F9-72A03DB8358B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2940" activeTab="1" xr2:uid="{23DB7735-CDB3-468D-9324-4B3B557388EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2940" activeTab="2" xr2:uid="{23DB7735-CDB3-468D-9324-4B3B557388EF}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM|SUMIF|SUMIFS" sheetId="1" r:id="rId1"/>
     <sheet name="COUNT|COUNTA|COUNTIF|COUNTIFS" sheetId="2" r:id="rId2"/>
+    <sheet name="AVERAGE|AVERAGEIF|AVERAGEIFS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="City3">'AVERAGE|AVERAGEIF|AVERAGEIFS'!$A$2:$A$11</definedName>
     <definedName name="Division1">'SUM|SUMIF|SUMIFS'!$C$2:$C$11</definedName>
     <definedName name="DOJ1_">'SUM|SUMIF|SUMIFS'!$B$2:$B$11</definedName>
     <definedName name="Fruits1">'COUNT|COUNTA|COUNTIF|COUNTIFS'!$A$2:$A$11</definedName>
+    <definedName name="Fruits3">'AVERAGE|AVERAGEIF|AVERAGEIFS'!$B$2:$B$11</definedName>
     <definedName name="Name1">'SUM|SUMIF|SUMIFS'!$A$2:$A$11</definedName>
     <definedName name="Quantity1">'COUNT|COUNTA|COUNTIF|COUNTIFS'!$B$2:$B$11</definedName>
+    <definedName name="Quantity3">'AVERAGE|AVERAGEIF|AVERAGEIFS'!$C$2:$C$11</definedName>
     <definedName name="Salary1">'SUM|SUMIF|SUMIFS'!$D$2:$D$11</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -33,8 +37,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anudip1</author>
+  </authors>
+  <commentList>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{8D5613D0-BF14-4640-ADC4-72DFDE0E5B4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anudip1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+AVERAGEIFS() will not work when we want to apply multiple conditions on the same range
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{C589B54E-6C5F-490F-BE29-02AA7355C3C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anudip1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the solution</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Name1</t>
   </si>
@@ -133,6 +196,72 @@
   </si>
   <si>
     <t>Count The Quantity Between 60 and 80</t>
+  </si>
+  <si>
+    <t>City3</t>
+  </si>
+  <si>
+    <t>Fruits3</t>
+  </si>
+  <si>
+    <t>Quantity3</t>
+  </si>
+  <si>
+    <t>Raigad</t>
+  </si>
+  <si>
+    <t>Ratnagiri</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Sangli</t>
+  </si>
+  <si>
+    <t>Satara</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Wardha</t>
+  </si>
+  <si>
+    <t>Washim</t>
+  </si>
+  <si>
+    <t>Jack Fruit</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>What is the Average means.?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula of th avg =&gt; </t>
+  </si>
+  <si>
+    <t>sum of total values / total number of values</t>
+  </si>
+  <si>
+    <t>Average of Quantity</t>
+  </si>
+  <si>
+    <t>Average Quantity of Banana</t>
+  </si>
+  <si>
+    <t>average of Quantity &gt; 60</t>
+  </si>
+  <si>
+    <t>Average Quantity of Apples and Banana</t>
+  </si>
+  <si>
+    <t>Average of Apples in Goa</t>
   </si>
 </sst>
 </file>
@@ -142,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +315,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -212,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -235,6 +377,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -242,7 +410,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +442,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -800,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8973A1D-101D-4C43-8C0D-3791C1F56692}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="3" sqref="F5 F7 F9 F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -953,4 +1163,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73767660-EF03-4E8C-A64A-8BDD53E012C8}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="15"/>
+    <col min="6" max="6" width="39.26953125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="18">
+        <v>23</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="18">
+        <v>40</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18">
+        <v>50</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="17">
+        <v>50</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="25">
+        <f>AVERAGE(Quantity3)</f>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18">
+        <v>68</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="17">
+        <v>76</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="25">
+        <f>AVERAGEIF(Fruits3,"Banana",Quantity3)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="17">
+        <v>76</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="17">
+        <v>80</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="26">
+        <f>AVERAGEIF(Quantity3,"&gt;60",Quantity3)</f>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="17">
+        <v>99</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="27" t="e">
+        <f>AVERAGEIFS(Quantity3,Fruits3,"Apples",Fruits3,"Banana")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="26">
+        <f>(AVERAGEIF(Fruits3,"Apples",Quantity3)+AVERAGEIF(Fruits3,"Banana",Quantity3))/2</f>
+        <v>58</v>
+      </c>
+      <c r="I12" s="19">
+        <f>(SUMIF(Fruits3,"Banana",Quantity3)+SUMIF(Fruits3,"Apples",Quantity3))/2</f>
+        <v>58</v>
+      </c>
+      <c r="J12" s="19">
+        <f>AVERAGE(SUMIF(Fruits3,"Banana",Quantity3),SUMIF(Fruits3,"Apples",Quantity3))</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="25">
+        <f>AVERAGEIFS(Quantity3,City3,"Goa",Fruits3,"Apples")</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/StatisticalFunctions.xlsx
+++ b/Excel/StatisticalFunctions.xlsx
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79617917-155D-481F-B6F9-72A03DB8358B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A761C6-5E2D-44BA-80AF-552C28EBF2D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2940" activeTab="2" xr2:uid="{23DB7735-CDB3-468D-9324-4B3B557388EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2940" firstSheet="2" activeTab="3" xr2:uid="{23DB7735-CDB3-468D-9324-4B3B557388EF}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM|SUMIF|SUMIFS" sheetId="1" r:id="rId1"/>
     <sheet name="COUNT|COUNTA|COUNTIF|COUNTIFS" sheetId="2" r:id="rId2"/>
     <sheet name="AVERAGE|AVERAGEIF|AVERAGEIFS" sheetId="3" r:id="rId3"/>
+    <sheet name="MIN|MAX|SMALL|LARGE" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="City3">'AVERAGE|AVERAGEIF|AVERAGEIFS'!$A$2:$A$11</definedName>
+    <definedName name="City4">'MIN|MAX|SMALL|LARGE'!$A$2:$A$11</definedName>
     <definedName name="Division1">'SUM|SUMIF|SUMIFS'!$C$2:$C$11</definedName>
     <definedName name="DOJ1_">'SUM|SUMIF|SUMIFS'!$B$2:$B$11</definedName>
     <definedName name="Fruits1">'COUNT|COUNTA|COUNTIF|COUNTIFS'!$A$2:$A$11</definedName>
     <definedName name="Fruits3">'AVERAGE|AVERAGEIF|AVERAGEIFS'!$B$2:$B$11</definedName>
+    <definedName name="Fruits4">'MIN|MAX|SMALL|LARGE'!$B$2:$B$11</definedName>
     <definedName name="Name1">'SUM|SUMIF|SUMIFS'!$A$2:$A$11</definedName>
     <definedName name="Quantity1">'COUNT|COUNTA|COUNTIF|COUNTIFS'!$B$2:$B$11</definedName>
     <definedName name="Quantity3">'AVERAGE|AVERAGEIF|AVERAGEIFS'!$C$2:$C$11</definedName>
+    <definedName name="Quantity4">'MIN|MAX|SMALL|LARGE'!$C$2:$C$11</definedName>
     <definedName name="Salary1">'SUM|SUMIF|SUMIFS'!$D$2:$D$11</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -97,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Name1</t>
   </si>
@@ -262,6 +266,57 @@
   </si>
   <si>
     <t>Average of Apples in Goa</t>
+  </si>
+  <si>
+    <t>City4</t>
+  </si>
+  <si>
+    <t>Fruits4</t>
+  </si>
+  <si>
+    <t>Quantity4</t>
+  </si>
+  <si>
+    <t>minimum Quantity</t>
+  </si>
+  <si>
+    <t>Maximum Quantity</t>
+  </si>
+  <si>
+    <t>FruitName</t>
+  </si>
+  <si>
+    <t>CityName</t>
+  </si>
+  <si>
+    <t>Minimun Quantity for the mentioned Fruit</t>
+  </si>
+  <si>
+    <t>Maximum Quantity of the Mentioned Fruit</t>
+  </si>
+  <si>
+    <t>minimum Quantity of the mentioned fruit in the mentioned city</t>
+  </si>
+  <si>
+    <t>maximum Quantity of the mentioned fruit in the mentioned city</t>
+  </si>
+  <si>
+    <t>Smallest Quantity</t>
+  </si>
+  <si>
+    <t>2nd Smallest Quantity</t>
+  </si>
+  <si>
+    <t>5th Smallest Quantity</t>
+  </si>
+  <si>
+    <t>Largest Value of the Quantity</t>
+  </si>
+  <si>
+    <t>2nd Highest Quantity</t>
+  </si>
+  <si>
+    <t>5th Highest Quantity</t>
   </si>
 </sst>
 </file>
@@ -329,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +471,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +504,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -485,6 +552,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -503,6 +575,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482359</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359D2F8D-A9AA-4B9E-B65F-77A6C88F1D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2368551" y="323851"/>
+          <a:ext cx="3263658" cy="958849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,209 +1290,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73767660-EF03-4E8C-A64A-8BDD53E012C8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="15" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="15"/>
-    <col min="6" max="6" width="39.26953125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="12.90625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="17"/>
+    <col min="6" max="6" width="39.26953125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="20">
         <v>23</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>40</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>50</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <v>50</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="27">
         <f>AVERAGE(Quantity3)</f>
         <v>57.7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <v>68</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="19">
         <v>76</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="27">
         <f>AVERAGEIF(Fruits3,"Banana",Quantity3)</f>
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="19">
         <v>76</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="19">
         <v>80</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <f>AVERAGEIF(Quantity3,"&gt;60",Quantity3)</f>
         <v>79.8</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="19">
         <v>99</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="27" t="e">
+      <c r="G12" s="29" t="e">
         <f>AVERAGEIFS(Quantity3,Fruits3,"Apples",Fruits3,"Banana")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="28">
         <f>(AVERAGEIF(Fruits3,"Apples",Quantity3)+AVERAGEIF(Fruits3,"Banana",Quantity3))/2</f>
         <v>58</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="21">
         <f>(SUMIF(Fruits3,"Banana",Quantity3)+SUMIF(Fruits3,"Apples",Quantity3))/2</f>
         <v>58</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="21">
         <f>AVERAGE(SUMIF(Fruits3,"Banana",Quantity3),SUMIF(Fruits3,"Apples",Quantity3))</f>
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F13" s="20"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="27">
         <f>AVERAGEIFS(Quantity3,City3,"Goa",Fruits3,"Apples")</f>
         <v>40</v>
       </c>
@@ -1381,4 +1502,292 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5C6C6-4676-471C-AFFE-28DBF287C9BC}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="12.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="57.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="14">
+        <v>76</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="12">
+        <f>MIN(Quantity4)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="14">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="12">
+        <f>MAX(Quantity4)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14">
+        <v>99</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="12">
+        <f>_xlfn.MINIFS(Quantity4,Fruits4,$E$10)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="12">
+        <f>_xlfn.MAXIFS(Quantity4,Fruits4,$E$10)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="12">
+        <f>_xlfn.MINIFS(Quantity4,Fruits4,$E$10,City4,$F$10)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="12">
+        <f>_xlfn.MAXIFS(Quantity4,Fruits4,$E$10,City4,$F$10)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="31">
+        <f>SMALL(Quantity4,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="31">
+        <f>SMALL(Quantity4,2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H23" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="31">
+        <f>SMALL(Quantity4,5)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="31">
+        <f>LARGE(Quantity4,1)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="31">
+        <f>LARGE(Quantity4,2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="31">
+        <f>LARGE(Quantity4,5)</f>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{99168C83-A875-406F-BC91-1BAE53F030C0}">
+      <formula1>Fruits4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10" xr:uid="{88733D9A-5654-4F19-841B-6DCA09FA58F5}">
+      <formula1>City4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>